--- a/templates/pick_up_template.xlsx
+++ b/templates/pick_up_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Private\Enterprise\SvenskaKyrkan\Report\Test\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atw10wp4\Jupyter\Enterprise\SvenskaKyrkan\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F1F08F-FAB5-4180-BEBE-0078680D6BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCDE7B5-383C-4F95-98C0-32AD0AAAF2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="5" r:id="rId1"/>
@@ -91,7 +91,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="_-[$€-C07]\ * #,##0.00_-;\-[$€-C07]\ * #,##0.00_-;_-[$€-C07]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="dd\.mm\.yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -228,9 +228,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -242,6 +239,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,41 +528,41 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="3.44140625" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="9.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E3" s="15"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="20"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="19"/>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
@@ -579,16 +579,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20">
         <v>0</v>
       </c>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="19">
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="18">
         <v>1</v>
       </c>
       <c r="C6" s="5"/>
@@ -598,8 +598,8 @@
       <c r="G6" s="6"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="18"/>
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="17"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="12"/>
@@ -607,7 +607,7 @@
       <c r="G7" s="4"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="11" t="s">
         <v>4</v>
       </c>

--- a/templates/pick_up_template.xlsx
+++ b/templates/pick_up_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atw10wp4\Jupyter\Enterprise\SvenskaKyrkan\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCDE7B5-383C-4F95-98C0-32AD0AAAF2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791B6124-D848-46A1-B524-4FA9F341F56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="Telephone">template!$E$6</definedName>
     <definedName name="Weekday">template!$F$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -66,9 +66,6 @@
     <t>Kommentar (order)</t>
   </si>
   <si>
-    <t>Julmarknad Click n' Collect 2021</t>
-  </si>
-  <si>
     <t>Dag</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>Datum och tid</t>
+  </si>
+  <si>
+    <t>Påskmarknad 2022</t>
   </si>
 </sst>
 </file>
@@ -91,7 +91,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="_-[$€-C07]\ * #,##0.00_-;\-[$€-C07]\ * #,##0.00_-;_-[$€-C07]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -239,7 +239,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -528,7 +528,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C6" sqref="C6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,7 +544,7 @@
     <row r="1" spans="1:9" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -552,10 +552,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -570,7 +570,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>3</v>
@@ -612,10 +612,10 @@
         <v>4</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/templates/pick_up_template.xlsx
+++ b/templates/pick_up_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atw10wp4\Jupyter\Enterprise\SvenskaKyrkan\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791B6124-D848-46A1-B524-4FA9F341F56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5905D7-8D9A-447A-9E28-92EB0570C086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="Telephone">template!$E$6</definedName>
     <definedName name="Weekday">template!$F$2</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -93,7 +93,7 @@
     <numFmt numFmtId="165" formatCode="_-[$€-C07]\ * #,##0.00_-;\-[$€-C07]\ * #,##0.00_-;_-[$€-C07]\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +158,13 @@
     <font>
       <i/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -199,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -207,16 +214,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -241,6 +243,10 @@
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -528,41 +534,41 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:E6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" customWidth="1"/>
+    <col min="1" max="2" width="3.44140625" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="9.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E3" s="15"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E3" s="12"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="19"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="16"/>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
@@ -579,39 +585,39 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20">
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17">
         <v>0</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="18">
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="15">
         <v>1</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="6"/>
-      <c r="I6" s="8"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="5"/>
+      <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="17"/>
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="14"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="4"/>
-      <c r="I7" s="8"/>
+      <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="11" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G8" t="s">
